--- a/src/test/java/com/testData/Jombone_SignUpPasswordData.xlsx
+++ b/src/test/java/com/testData/Jombone_SignUpPasswordData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aila\eclipse-workspace\jombone\src\test\java\com\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE911E8-53C4-4E39-AEDD-4FAFC0B56784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F71FF4-8CE2-4393-9016-C9B7691880B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{F2CA8C7A-6456-4EFF-93E9-06EFD680AA06}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{F2CA8C7A-6456-4EFF-93E9-06EFD680AA06}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
   <si>
     <t>FirstName</t>
   </si>
@@ -97,7 +97,34 @@
     <t xml:space="preserve"> 416-858-7849</t>
   </si>
   <si>
-    <t>b</t>
+    <t>saritha17@yahoo.ca</t>
+  </si>
+  <si>
+    <t>saritha18@yahoo.ca</t>
+  </si>
+  <si>
+    <t>saritha19@yahoo.ca</t>
+  </si>
+  <si>
+    <t>saritha20@yahoo.ca</t>
+  </si>
+  <si>
+    <t>saritha21@yahoo.ca</t>
+  </si>
+  <si>
+    <t>saritha22yahoo.ca</t>
+  </si>
+  <si>
+    <t>saritha23@yahoo.ca</t>
+  </si>
+  <si>
+    <t>saritha24@yahoo.ca</t>
+  </si>
+  <si>
+    <t>saritha25@yahoo.ca</t>
+  </si>
+  <si>
+    <t>saritha26@yahoo.ca</t>
   </si>
 </sst>
 </file>
@@ -469,14 +496,14 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="42.85546875" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" customWidth="1"/>
     <col min="5" max="5" width="21.140625" customWidth="1"/>
   </cols>
@@ -506,13 +533,13 @@
         <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -523,13 +550,13 @@
         <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -540,13 +567,13 @@
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -557,13 +584,13 @@
         <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -574,13 +601,13 @@
         <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -591,13 +618,13 @@
         <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -608,13 +635,13 @@
         <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -625,13 +652,13 @@
         <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -642,13 +669,13 @@
         <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -659,22 +686,27 @@
         <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{97325FB9-9A0D-44D5-885D-1693A4498781}"/>
-    <hyperlink ref="C3:C10" r:id="rId2" display="saritha750@yahoo.ca" xr:uid="{511F49BE-A276-49EC-99D1-7B775304190C}"/>
-    <hyperlink ref="E8" r:id="rId3" xr:uid="{019FF7E6-958C-4C71-ADD8-5782F18E8032}"/>
-    <hyperlink ref="C11" r:id="rId4" xr:uid="{14667F1B-BE3C-4D76-A495-E10B6A02E051}"/>
+    <hyperlink ref="C2:C9" r:id="rId1" display="saritha750@yahoo.ca" xr:uid="{511F49BE-A276-49EC-99D1-7B775304190C}"/>
+    <hyperlink ref="E7" r:id="rId2" xr:uid="{019FF7E6-958C-4C71-ADD8-5782F18E8032}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{8AB9B235-7401-4BDD-96FE-F234F01B1E76}"/>
+    <hyperlink ref="C3:C11" r:id="rId4" display="saritha750@yahoo.ca" xr:uid="{4A511B91-5669-470B-9476-7171233C419F}"/>
+    <hyperlink ref="C3" r:id="rId5" xr:uid="{CF0CBCFE-5699-43A7-9B9A-CDFF263D8197}"/>
+    <hyperlink ref="C4" r:id="rId6" xr:uid="{079F7925-9FF6-4A95-8C6A-A05F830630D2}"/>
+    <hyperlink ref="C5" r:id="rId7" xr:uid="{8141CB72-3DC4-48D3-B029-136E71DCDCD3}"/>
+    <hyperlink ref="C6" r:id="rId8" xr:uid="{EA6F4E5C-6233-434D-9B2A-6C4649BD1AFC}"/>
+    <hyperlink ref="C8" r:id="rId9" xr:uid="{00BAB6B8-2A31-4102-8C41-1B3C25EA9ECE}"/>
+    <hyperlink ref="C9" r:id="rId10" xr:uid="{A0A9994A-BACB-4A36-9E91-987AAC9FB824}"/>
+    <hyperlink ref="C10" r:id="rId11" xr:uid="{575B1C96-FB78-4732-8AA0-4D297D979ED2}"/>
+    <hyperlink ref="C11" r:id="rId12" xr:uid="{5D65CE11-19E2-4D39-BCE6-C5B31C205603}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
